--- a/datasheets/individuals.xlsx
+++ b/datasheets/individuals.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E67559E-4DEF-7946-A000-BBCDD2F09A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73356C3A-57C4-E64D-93DC-1D672CC9A2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{896D07F5-37C6-804D-B106-B513E12A6705}"/>
+    <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,90 +32,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
-  <si>
-    <t>diseases_ageOfOnset_iso8601duration</t>
-  </si>
-  <si>
-    <t>diseases_ageOfOnset_end_iso8601duration</t>
-  </si>
-  <si>
-    <t>diseases_ageOfOnset_start_iso8601duration</t>
-  </si>
-  <si>
-    <t>diseases_ageOfOnset_days</t>
-  </si>
-  <si>
-    <t>diseases_ageOfOnset_weeks</t>
-  </si>
-  <si>
-    <t>diseases_ageOfOnset_end</t>
-  </si>
-  <si>
-    <t>diseases_ageOfOnset_start</t>
-  </si>
-  <si>
-    <t>diseases_ageOfOnset_id</t>
-  </si>
-  <si>
-    <t>diseases_ageOfOnset_label</t>
-  </si>
-  <si>
-    <t>diseases_diseaseCode_id</t>
-  </si>
-  <si>
-    <t>diseases_diseaseCode_label</t>
-  </si>
-  <si>
-    <t>diseases_familyHistory</t>
-  </si>
-  <si>
-    <t>diseases_notes</t>
-  </si>
-  <si>
-    <t>diseases_severity_id</t>
-  </si>
-  <si>
-    <t>diseases_severity_label</t>
-  </si>
-  <si>
-    <t>diseases_stage_id</t>
-  </si>
-  <si>
-    <t>diseases_stage_label</t>
-  </si>
-  <si>
-    <t>ethnicity_id</t>
-  </si>
-  <si>
-    <t>ethnicity_label</t>
-  </si>
-  <si>
-    <t>exposures_ageAtExposure_iso8601duration</t>
-  </si>
-  <si>
-    <t>exposures_date</t>
-  </si>
-  <si>
-    <t>exposures_duration</t>
-  </si>
-  <si>
-    <t>exposures_exposureCode_id</t>
-  </si>
-  <si>
-    <t>exposures_exposureCode_label</t>
-  </si>
-  <si>
-    <t>exposures_unit_id</t>
-  </si>
-  <si>
-    <t>exposures_unit_label</t>
-  </si>
-  <si>
-    <t>geographicOrigin_id</t>
-  </si>
-  <si>
-    <t>geographicOrigin_label</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="135">
+  <si>
+    <t>diseases|ageOfOnset|iso8601duration</t>
+  </si>
+  <si>
+    <t>diseases|ageOfOnset|end|iso8601duration</t>
+  </si>
+  <si>
+    <t>diseases|ageOfOnset|start|iso8601duration</t>
+  </si>
+  <si>
+    <t>diseases|ageOfOnset|days</t>
+  </si>
+  <si>
+    <t>diseases|ageOfOnset|weeks</t>
+  </si>
+  <si>
+    <t>diseases|ageOfOnset|end</t>
+  </si>
+  <si>
+    <t>diseases|ageOfOnset|start</t>
+  </si>
+  <si>
+    <t>diseases|ageOfOnset|id</t>
+  </si>
+  <si>
+    <t>diseases|ageOfOnset|label</t>
+  </si>
+  <si>
+    <t>diseases|diseaseCode|id</t>
+  </si>
+  <si>
+    <t>diseases|diseaseCode|label</t>
+  </si>
+  <si>
+    <t>diseases|familyHistory</t>
+  </si>
+  <si>
+    <t>diseases|notes</t>
+  </si>
+  <si>
+    <t>diseases|severity|id</t>
+  </si>
+  <si>
+    <t>diseases|severity|label</t>
+  </si>
+  <si>
+    <t>diseases|stage|id</t>
+  </si>
+  <si>
+    <t>diseases|stage|label</t>
+  </si>
+  <si>
+    <t>ethnicity|id</t>
+  </si>
+  <si>
+    <t>ethnicity|label</t>
+  </si>
+  <si>
+    <t>exposures|ageAtExposure|iso8601duration</t>
+  </si>
+  <si>
+    <t>exposures|date</t>
+  </si>
+  <si>
+    <t>exposures|duration</t>
+  </si>
+  <si>
+    <t>exposures|exposureCode|id</t>
+  </si>
+  <si>
+    <t>exposures|exposureCode|label</t>
+  </si>
+  <si>
+    <t>exposures|unit|id</t>
+  </si>
+  <si>
+    <t>exposures|unit|label</t>
+  </si>
+  <si>
+    <t>geographicOrigin|id</t>
+  </si>
+  <si>
+    <t>geographicOrigin|label</t>
   </si>
   <si>
     <t>id</t>
@@ -127,301 +124,319 @@
     <t>info</t>
   </si>
   <si>
-    <t>interventionsOrProcedures_ageAtProcedure_iso8601duration</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_ageAtProcedure_end_iso8601duration</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_ageAtProcedure_start_iso8601duration</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_ageAtProcedure_days</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_ageAtProcedure_weeks</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_ageAtProcedure_end</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_ageAtProcedure_start</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_ageAtProcedure_id</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_ageAtProcedure_label</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_bodySite_id</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_bodySite_label</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_dateOfProcedure</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_procedureCode_id</t>
-  </si>
-  <si>
-    <t>interventionsOrProcedures_procedureCode_label</t>
+    <t>interventionsOrProcedures|ageAtProcedure|iso8601duration</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|ageAtProcedure|end|iso8601duration</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|ageAtProcedure|start|iso8601duration</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|ageAtProcedure|days</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|ageAtProcedure|weeks</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|ageAtProcedure|end</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|ageAtProcedure|start</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|ageAtProcedure|id</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|ageAtProcedure|label</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|bodySite|id</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|bodySite|label</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|dateOfProcedure</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|procedureCode|id</t>
+  </si>
+  <si>
+    <t>interventionsOrProcedures|procedureCode|label</t>
   </si>
   <si>
     <t>karyotypicSex</t>
   </si>
   <si>
-    <t>measures_assayCode_id</t>
-  </si>
-  <si>
-    <t>measures_assayCode_label</t>
-  </si>
-  <si>
-    <t>measures_date</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_referenceRange_high</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_referenceRange_low</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_referenceRange_unit_id</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_referenceRange_unit_label</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_unit_id</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_unit_label</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_value</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_typedQuantities_quantity_referenceRange_high</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_typedQuantities_quantity_referenceRange_low</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_typedQuantities_quantity_referenceRange_unit</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_typedQuantities_quantity_unit_id</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_typedQuantities_quantity_unit_label</t>
-  </si>
-  <si>
-    <t>measures_measurementValue_typedQuantities_quantity_value</t>
-  </si>
-  <si>
-    <t>measures_notes</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_iso8601duration</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_end_iso8601duration</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_start_iso8601duration</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_days</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_weeks</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_end</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_start</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_id</t>
-  </si>
-  <si>
-    <t>measures_observationMoment_label</t>
-  </si>
-  <si>
-    <t>measures_procedure_ageAtProcedure</t>
-  </si>
-  <si>
-    <t>measures_procedure_bodySite_id</t>
-  </si>
-  <si>
-    <t>measures_procedure_bodySite_label</t>
-  </si>
-  <si>
-    <t>measures_procedure_dateOfProcedure</t>
-  </si>
-  <si>
-    <t>measures_procedure_procedureCode_id</t>
-  </si>
-  <si>
-    <t>measures_procedure_procedureCode_label</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_ageOfOnset</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_diseaseCode_id</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_familyHistory</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_notes</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_severity_id</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_severity_label</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_stage_id</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_stage_label</t>
-  </si>
-  <si>
-    <t>pedigrees_id</t>
-  </si>
-  <si>
-    <t>pedigrees_members_affected</t>
-  </si>
-  <si>
-    <t>pedigrees_members_memberId</t>
-  </si>
-  <si>
-    <t>pedigrees_members_role_id</t>
-  </si>
-  <si>
-    <t>pedigrees_members_role_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_evidenceCode_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_evidenceCode_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_reference_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_reference_notes</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_reference_reference</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_excluded</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_featureType_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_featureType_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_modifiers_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_modifiers_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_notes</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_end_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_start_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_end</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_start</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_end_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_start_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_days</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_weeks</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_end</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_start</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_severity_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_severity_label</t>
-  </si>
-  <si>
-    <t>sex_id</t>
-  </si>
-  <si>
-    <t>sex_label</t>
-  </si>
-  <si>
-    <t>treatments_ageAtOnset_iso8601duration</t>
-  </si>
-  <si>
-    <t>treatments_cumulativeDose_referenceRange_id</t>
-  </si>
-  <si>
-    <t>treatments_cumulativeDose_referenceRange_label</t>
-  </si>
-  <si>
-    <t>treatments_doseIntervals_id</t>
-  </si>
-  <si>
-    <t>treatments_doseIntervals_label</t>
-  </si>
-  <si>
-    <t>treatments_routeOfAdministration_id</t>
-  </si>
-  <si>
-    <t>treatments_routeOfAdministration_label</t>
+    <t>measures|assayCode|id</t>
+  </si>
+  <si>
+    <t>measures|assayCode|label</t>
+  </si>
+  <si>
+    <t>measures|date</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|referenceRange|high</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|referenceRange|low</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|referenceRange|unit|id</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|referenceRange|unit|label</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|unit|id</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|unit|label</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|value</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|typedQuantities|quantity|referenceRange|high</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|typedQuantities|quantity|referenceRange|low</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|typedQuantities|quantity|referenceRange|unit</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|typedQuantities|quantity|unit|id</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|typedQuantities|quantity|unit|label</t>
+  </si>
+  <si>
+    <t>measures|measurementValue|typedQuantities|quantity|value</t>
+  </si>
+  <si>
+    <t>measures|notes</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|iso8601duration</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|end|iso8601duration</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|start|iso8601duration</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|days</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|weeks</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|end</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|start</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|id</t>
+  </si>
+  <si>
+    <t>measures|observationMoment|label</t>
+  </si>
+  <si>
+    <t>measures|procedure|ageAtProcedure</t>
+  </si>
+  <si>
+    <t>measures|procedure|bodySite|id</t>
+  </si>
+  <si>
+    <t>measures|procedure|bodySite|label</t>
+  </si>
+  <si>
+    <t>measures|procedure|dateOfProcedure</t>
+  </si>
+  <si>
+    <t>measures|procedure|procedureCode|id</t>
+  </si>
+  <si>
+    <t>measures|procedure|procedureCode|label</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|ageOfOnset</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|diseaseCode|id</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|diseaseCode|label</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|familyHistory</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|notes</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|severity|id</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|severity|label</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|stage|id</t>
+  </si>
+  <si>
+    <t>pedigrees|disease|stage|label</t>
+  </si>
+  <si>
+    <t>pedigrees|id</t>
+  </si>
+  <si>
+    <t>pedigrees|members|affected</t>
+  </si>
+  <si>
+    <t>pedigrees|members|memberId</t>
+  </si>
+  <si>
+    <t>pedigrees|members|role|id</t>
+  </si>
+  <si>
+    <t>pedigrees|members|role|label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|evidence|evidenceCode|id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|evidence|evidenceCode|label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|evidence|reference|id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|evidence|reference|notes</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|evidence|reference|reference</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|excluded</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|featureType|id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|featureType|label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|modifiers|id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|modifiers|label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|notes</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|end|iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|start|iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|days</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|weeks</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|end</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|start</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|onset|label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|end|iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|start|iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|days</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|weeks</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|end</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|start</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|resolution|label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|severity|id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures|severity|label</t>
+  </si>
+  <si>
+    <t>sex|id</t>
+  </si>
+  <si>
+    <t>sex|label</t>
+  </si>
+  <si>
+    <t>treatments|ageAtOnset|iso8601duration</t>
+  </si>
+  <si>
+    <t>treatments|cumulativeDose|referenceRange|id</t>
+  </si>
+  <si>
+    <t>treatments|cumulativeDose|referenceRange|label</t>
+  </si>
+  <si>
+    <t>treatments|doseIntervals|id</t>
+  </si>
+  <si>
+    <t>treatments|doseIntervals|label</t>
+  </si>
+  <si>
+    <t>treatments|routeOfAdministration|id</t>
+  </si>
+  <si>
+    <t>treatments|routeOfAdministration|label</t>
+  </si>
+  <si>
+    <t>treatments|treatmentCode|id</t>
+  </si>
+  <si>
+    <t>treatments|treatmentCode|label</t>
   </si>
   <si>
     <t>treatments_treatmentCode_label</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -772,10 +787,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B609C3C-022B-CA43-A92E-79A9ED3CE03C}">
-  <dimension ref="A1:EE1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="DY1" workbookViewId="0">
+      <selection activeCell="EE1" sqref="EE1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1017,155 +1034,577 @@
       <c r="CA1" t="s">
         <v>78</v>
       </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
       <c r="CC1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="CD1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CE1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CF1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="CG1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CH1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CI1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CJ1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CK1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CL1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CM1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CN1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CO1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CP1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CQ1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CR1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CS1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CT1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CU1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CV1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CW1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CX1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CY1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CZ1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="DA1" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>106</v>
       </c>
       <c r="DD1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="DE1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="DF1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="DG1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="DH1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="DI1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="DJ1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="DK1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="DL1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="DM1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="DN1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="DO1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="DP1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="DQ1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="DR1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="DS1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="DT1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="DU1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="DV1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="DW1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="DX1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="DY1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="DZ1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="EA1" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>132</v>
       </c>
       <c r="EE1" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:135" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>134</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
